--- a/medicine/Sexualité et sexologie/Hope_Marie_Carlton/Hope_Marie_Carlton.xlsx
+++ b/medicine/Sexualité et sexologie/Hope_Marie_Carlton/Hope_Marie_Carlton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hope Marie Carlton, née Hope Marie Rizzitano, à Riverhead le 3 mars 1966, est un mannequin et une actrice américaine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hope Marie Rizzitano naît d'une mère américaine, Marie, qui pratiquait le culturisme et gérait une salle de sport pour femmes, et d'un père immigré italien d'origine sicilienne, Carmine, chauffeur de poids-lourd.
 Sa carrière de mannequin commence à l'âge de 13 ans. Elle enchaîne les succès et pose nue pour Playboy, en juillet 1985.
@@ -545,7 +559,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1987 : Piège mortel à Hawaï d'Andy Sidaris : Taryn
 1987 : L'Agence tous risques, série télévisée, épisode 5.13 Without Reservations : Dawn
